--- a/upload/despesa-pessoal-acordo-judicial-brumadinho.xlsx
+++ b/upload/despesa-pessoal-acordo-judicial-brumadinho.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12144"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12150"/>
   </bookViews>
   <sheets>
     <sheet name="Comitê" sheetId="4" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12269" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12269" uniqueCount="285">
   <si>
     <t>Secretaria de Estado de Saúde</t>
   </si>
@@ -899,9 +899,6 @@
   <si>
     <t>Yandra Martins De Souza</t>
   </si>
-  <si>
-    <t>Adriana Coelho</t>
-  </si>
 </sst>
 </file>
 
@@ -1280,21 +1277,21 @@
   <dimension ref="A1:L2441"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.3984375" customWidth="1"/>
+    <col min="1" max="1" width="14.375" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="21.296875" customWidth="1"/>
-    <col min="5" max="5" width="22.59765625" customWidth="1"/>
-    <col min="6" max="6" width="14.3984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.296875" customWidth="1"/>
-    <col min="8" max="8" width="20.296875" customWidth="1"/>
-    <col min="9" max="9" width="21.59765625" customWidth="1"/>
+    <col min="4" max="4" width="21.25" customWidth="1"/>
+    <col min="5" max="5" width="22.625" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.25" customWidth="1"/>
+    <col min="8" max="8" width="20.25" customWidth="1"/>
+    <col min="9" max="9" width="21.625" customWidth="1"/>
     <col min="10" max="10" width="24" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1344,7 +1341,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>285</v>
+        <v>2</v>
       </c>
       <c r="F2" s="1">
         <v>5975.27</v>
@@ -78833,6 +78830,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6bca3fa6-a5eb-4b65-82b5-ad238e0f7d3a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3ea247c6-282e-4f08-8659-08412da1af4b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E97E6FB9F459C747B111843371630386" ma:contentTypeVersion="16" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="8bc704556fbb02fc13dc9dd470f928a7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6bca3fa6-a5eb-4b65-82b5-ad238e0f7d3a" xmlns:ns3="3ea247c6-282e-4f08-8659-08412da1af4b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ccccf29e18373fe20cc6cffe8165c553" ns2:_="" ns3:_="">
     <xsd:import namespace="6bca3fa6-a5eb-4b65-82b5-ad238e0f7d3a"/>
@@ -79075,27 +79092,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9A89705-0F73-4A13-A7AE-B037D23B35D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6bca3fa6-a5eb-4b65-82b5-ad238e0f7d3a"/>
+    <ds:schemaRef ds:uri="3ea247c6-282e-4f08-8659-08412da1af4b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6bca3fa6-a5eb-4b65-82b5-ad238e0f7d3a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3ea247c6-282e-4f08-8659-08412da1af4b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA080EFF-1482-4E2D-88A3-1B9525992C6D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63F84EB9-F99B-46E6-AB6C-CE0B489DD459}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -79112,23 +79128,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA080EFF-1482-4E2D-88A3-1B9525992C6D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9A89705-0F73-4A13-A7AE-B037D23B35D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6bca3fa6-a5eb-4b65-82b5-ad238e0f7d3a"/>
-    <ds:schemaRef ds:uri="3ea247c6-282e-4f08-8659-08412da1af4b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/upload/despesa-pessoal-acordo-judicial-brumadinho.xlsx
+++ b/upload/despesa-pessoal-acordo-judicial-brumadinho.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28318"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Silviana\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m11483500\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6821999F-B536-437F-B0F2-687261480E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="-108" windowWidth="20616" windowHeight="11016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Comitê" sheetId="4" r:id="rId1"/>
@@ -904,7 +903,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -1276,26 +1275,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8940D5E-BF43-42C3-8918-0FB3B77DC521}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2441"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2422" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:O1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.375" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" customWidth="1"/>
-    <col min="9" max="9" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.25" customWidth="1"/>
+    <col min="5" max="5" width="22.625" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="17.25" customWidth="1"/>
+    <col min="8" max="8" width="20.25" customWidth="1"/>
+    <col min="9" max="9" width="21.625" customWidth="1"/>
     <col min="10" max="10" width="24" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.25" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -78829,12 +78828,21 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1" xr:uid="{C8940D5E-BF43-42C3-8918-0FB3B77DC521}"/>
+  <autoFilter ref="A1:L1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E97E6FB9F459C747B111843371630386" ma:contentTypeVersion="16" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="8bc704556fbb02fc13dc9dd470f928a7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6bca3fa6-a5eb-4b65-82b5-ad238e0f7d3a" xmlns:ns3="3ea247c6-282e-4f08-8659-08412da1af4b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ccccf29e18373fe20cc6cffe8165c553" ns2:_="" ns3:_="">
     <xsd:import namespace="6bca3fa6-a5eb-4b65-82b5-ad238e0f7d3a"/>
@@ -79077,15 +79085,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -79098,13 +79097,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63F84EB9-F99B-46E6-AB6C-CE0B489DD459}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA080EFF-1482-4E2D-88A3-1B9525992C6D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA080EFF-1482-4E2D-88A3-1B9525992C6D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63F84EB9-F99B-46E6-AB6C-CE0B489DD459}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6bca3fa6-a5eb-4b65-82b5-ad238e0f7d3a"/>
+    <ds:schemaRef ds:uri="3ea247c6-282e-4f08-8659-08412da1af4b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9A89705-0F73-4A13-A7AE-B037D23B35D4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9A89705-0F73-4A13-A7AE-B037D23B35D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6bca3fa6-a5eb-4b65-82b5-ad238e0f7d3a"/>
+    <ds:schemaRef ds:uri="3ea247c6-282e-4f08-8659-08412da1af4b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/upload/despesa-pessoal-acordo-judicial-brumadinho.xlsx
+++ b/upload/despesa-pessoal-acordo-judicial-brumadinho.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m11483500\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m13368964\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9000"/>
+    <workbookView xWindow="28695" yWindow="-105" windowWidth="20610" windowHeight="11010"/>
   </bookViews>
   <sheets>
     <sheet name="Comitê" sheetId="4" r:id="rId1"/>
@@ -907,7 +907,14 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -933,18 +940,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1278,8 +1288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2441"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1288,7 +1298,7 @@
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="21.25" customWidth="1"/>
     <col min="5" max="5" width="22.625" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16.375" style="4" customWidth="1"/>
     <col min="7" max="7" width="17.25" customWidth="1"/>
     <col min="8" max="8" width="20.25" customWidth="1"/>
     <col min="9" max="9" width="21.625" customWidth="1"/>
@@ -1346,7 +1356,7 @@
       <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="5">
         <v>5975.27</v>
       </c>
       <c r="G2" t="s">
@@ -1378,7 +1388,7 @@
       <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="5">
         <v>4864.34</v>
       </c>
       <c r="G3" t="s">
@@ -1410,7 +1420,7 @@
       <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="5">
         <v>5598.05</v>
       </c>
       <c r="G4" t="s">
@@ -1442,7 +1452,7 @@
       <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="5">
         <v>5411.880000000001</v>
       </c>
       <c r="G5" t="s">
@@ -1474,7 +1484,7 @@
       <c r="E6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="5">
         <v>7224.8200000000006</v>
       </c>
       <c r="G6" t="s">
@@ -1506,7 +1516,7 @@
       <c r="E7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="5">
         <v>6780.63</v>
       </c>
       <c r="G7" t="s">
@@ -1538,7 +1548,7 @@
       <c r="E8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="5">
         <v>6864.63</v>
       </c>
       <c r="G8" t="s">
@@ -1570,7 +1580,7 @@
       <c r="E9" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="5">
         <v>8869.76</v>
       </c>
       <c r="G9" t="s">
@@ -1602,7 +1612,7 @@
       <c r="E10" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="5">
         <v>4385.2</v>
       </c>
       <c r="G10" t="s">
@@ -1634,7 +1644,7 @@
       <c r="E11" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="5">
         <v>8227.2999999999993</v>
       </c>
       <c r="G11" t="s">
@@ -1666,7 +1676,7 @@
       <c r="E12" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="5">
         <v>4815.28</v>
       </c>
       <c r="G12" t="s">
@@ -1698,7 +1708,7 @@
       <c r="E13" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="5">
         <v>6886.6399999999994</v>
       </c>
       <c r="G13" t="s">
@@ -1730,7 +1740,7 @@
       <c r="E14" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="5">
         <v>7159.4199999999992</v>
       </c>
       <c r="G14" t="s">
@@ -1762,7 +1772,7 @@
       <c r="E15" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="5">
         <v>8803.08</v>
       </c>
       <c r="G15" t="s">
@@ -1794,7 +1804,7 @@
       <c r="E16" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="5">
         <v>2915.26</v>
       </c>
       <c r="G16" t="s">
@@ -1826,7 +1836,7 @@
       <c r="E17" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="5">
         <v>9406.7099999999991</v>
       </c>
       <c r="G17" t="s">
@@ -1858,7 +1868,7 @@
       <c r="E18" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="5">
         <v>8633.35</v>
       </c>
       <c r="G18" t="s">
@@ -1890,7 +1900,7 @@
       <c r="E19" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="5">
         <v>9566.73</v>
       </c>
       <c r="G19" t="s">
@@ -1922,7 +1932,7 @@
       <c r="E20" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="5">
         <v>8669.17</v>
       </c>
       <c r="G20" t="s">
@@ -1954,7 +1964,7 @@
       <c r="E21" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="5">
         <v>9512.1200000000008</v>
       </c>
       <c r="G21" t="s">
@@ -1986,7 +1996,7 @@
       <c r="E22" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="5">
         <v>9168.4699999999993</v>
       </c>
       <c r="G22" t="s">
@@ -2018,7 +2028,7 @@
       <c r="E23" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="5">
         <v>11079.66</v>
       </c>
       <c r="G23" t="s">
@@ -2050,7 +2060,7 @@
       <c r="E24" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="5">
         <v>9178.15</v>
       </c>
       <c r="G24" t="s">
@@ -2082,7 +2092,7 @@
       <c r="E25" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="5">
         <v>8878.66</v>
       </c>
       <c r="G25" t="s">
@@ -2114,7 +2124,7 @@
       <c r="E26" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="5">
         <v>9083.49</v>
       </c>
       <c r="G26" t="s">
@@ -2146,7 +2156,7 @@
       <c r="E27" t="s">
         <v>17</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="5">
         <v>8804.86</v>
       </c>
       <c r="G27" t="s">
@@ -2178,7 +2188,7 @@
       <c r="E28" t="s">
         <v>17</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="5">
         <v>8969</v>
       </c>
       <c r="G28" t="s">
@@ -2210,7 +2220,7 @@
       <c r="E29" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="5">
         <v>5830.53</v>
       </c>
       <c r="G29" t="s">
@@ -2242,7 +2252,7 @@
       <c r="E30" t="s">
         <v>17</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="5">
         <v>9029.06</v>
       </c>
       <c r="G30" t="s">
@@ -2274,7 +2284,7 @@
       <c r="E31" t="s">
         <v>17</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="5">
         <v>8955.31</v>
       </c>
       <c r="G31" t="s">
@@ -2306,7 +2316,7 @@
       <c r="E32" t="s">
         <v>17</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="5">
         <v>10561.7</v>
       </c>
       <c r="G32" t="s">
@@ -2338,7 +2348,7 @@
       <c r="E33" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="5">
         <v>8627.69</v>
       </c>
       <c r="G33" t="s">
@@ -2370,7 +2380,7 @@
       <c r="E34" t="s">
         <v>17</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="5">
         <v>9065.7999999999993</v>
       </c>
       <c r="G34" t="s">
@@ -2402,7 +2412,7 @@
       <c r="E35" t="s">
         <v>17</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="5">
         <v>8889.27</v>
       </c>
       <c r="G35" t="s">
@@ -2434,7 +2444,7 @@
       <c r="E36" t="s">
         <v>17</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="5">
         <v>10956.07</v>
       </c>
       <c r="G36" t="s">
@@ -2466,7 +2476,7 @@
       <c r="E37" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="5">
         <v>9516.82</v>
       </c>
       <c r="G37" t="s">
@@ -2498,7 +2508,7 @@
       <c r="E38" t="s">
         <v>17</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="5">
         <v>9496.09</v>
       </c>
       <c r="G38" t="s">
@@ -2530,7 +2540,7 @@
       <c r="E39" t="s">
         <v>17</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="5">
         <v>9203.0499999999993</v>
       </c>
       <c r="G39" t="s">
@@ -2562,7 +2572,7 @@
       <c r="E40" t="s">
         <v>17</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="5">
         <v>8668.9</v>
       </c>
       <c r="G40" t="s">
@@ -2594,7 +2604,7 @@
       <c r="E41" t="s">
         <v>20</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="5">
         <v>6755.88</v>
       </c>
       <c r="G41" t="s">
@@ -2624,7 +2634,7 @@
       <c r="E42" t="s">
         <v>20</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="5">
         <v>6673.79</v>
       </c>
       <c r="G42" t="s">
@@ -2654,7 +2664,7 @@
       <c r="E43" t="s">
         <v>20</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="5">
         <v>8026.52</v>
       </c>
       <c r="G43" t="s">
@@ -2684,7 +2694,7 @@
       <c r="E44" t="s">
         <v>20</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="5">
         <v>6448.79</v>
       </c>
       <c r="G44" t="s">
@@ -2714,7 +2724,7 @@
       <c r="E45" t="s">
         <v>20</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="5">
         <v>6673.79</v>
       </c>
       <c r="G45" t="s">
@@ -2744,7 +2754,7 @@
       <c r="E46" t="s">
         <v>20</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="5">
         <v>6523.79</v>
       </c>
       <c r="G46" t="s">
@@ -2774,7 +2784,7 @@
       <c r="E47" t="s">
         <v>20</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="5">
         <v>6297.6</v>
       </c>
       <c r="G47" t="s">
@@ -2804,7 +2814,7 @@
       <c r="E48" t="s">
         <v>20</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="5">
         <v>6623.79</v>
       </c>
       <c r="G48" t="s">
@@ -2834,7 +2844,7 @@
       <c r="E49" t="s">
         <v>20</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49" s="5">
         <v>6576.59</v>
       </c>
       <c r="G49" t="s">
@@ -2864,7 +2874,7 @@
       <c r="E50" t="s">
         <v>20</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50" s="5">
         <v>6598.79</v>
       </c>
       <c r="G50" t="s">
@@ -2894,7 +2904,7 @@
       <c r="E51" t="s">
         <v>20</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F51" s="5">
         <v>6748.7800000000007</v>
       </c>
       <c r="G51" t="s">
@@ -2924,7 +2934,7 @@
       <c r="E52" t="s">
         <v>20</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="5">
         <v>6448.79</v>
       </c>
       <c r="G52" t="s">
@@ -2954,7 +2964,7 @@
       <c r="E53" t="s">
         <v>20</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F53" s="5">
         <v>6523.79</v>
       </c>
       <c r="G53" t="s">
@@ -2984,7 +2994,7 @@
       <c r="E54" t="s">
         <v>20</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F54" s="5">
         <v>6373.79</v>
       </c>
       <c r="G54" t="s">
@@ -3014,7 +3024,7 @@
       <c r="E55" t="s">
         <v>20</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F55" s="5">
         <v>6448.79</v>
       </c>
       <c r="G55" t="s">
@@ -3044,7 +3054,7 @@
       <c r="E56" t="s">
         <v>20</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F56" s="5">
         <v>4186.49</v>
       </c>
       <c r="G56" t="s">
@@ -3074,7 +3084,7 @@
       <c r="E57" t="s">
         <v>23</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F57" s="5">
         <v>4878.6899999999996</v>
       </c>
       <c r="G57" t="s">
@@ -3106,7 +3116,7 @@
       <c r="E58" t="s">
         <v>23</v>
       </c>
-      <c r="F58" s="4">
+      <c r="F58" s="5">
         <v>5136.9599999999991</v>
       </c>
       <c r="G58" t="s">
@@ -3138,7 +3148,7 @@
       <c r="E59" t="s">
         <v>23</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F59" s="5">
         <v>4963.4299999999994</v>
       </c>
       <c r="G59" t="s">
@@ -3170,7 +3180,7 @@
       <c r="E60" t="s">
         <v>23</v>
       </c>
-      <c r="F60" s="4">
+      <c r="F60" s="5">
         <v>5605.8899999999994</v>
       </c>
       <c r="G60" t="s">
@@ -3202,7 +3212,7 @@
       <c r="E61" t="s">
         <v>23</v>
       </c>
-      <c r="F61" s="4">
+      <c r="F61" s="5">
         <v>4792.43</v>
       </c>
       <c r="G61" t="s">
@@ -3234,7 +3244,7 @@
       <c r="E62" t="s">
         <v>23</v>
       </c>
-      <c r="F62" s="4">
+      <c r="F62" s="5">
         <v>5239.8999999999996</v>
       </c>
       <c r="G62" t="s">
@@ -3266,7 +3276,7 @@
       <c r="E63" t="s">
         <v>23</v>
       </c>
-      <c r="F63" s="4">
+      <c r="F63" s="5">
         <v>5052.5200000000004</v>
       </c>
       <c r="G63" t="s">
@@ -3298,7 +3308,7 @@
       <c r="E64" t="s">
         <v>23</v>
       </c>
-      <c r="F64" s="4">
+      <c r="F64" s="5">
         <v>4964.59</v>
       </c>
       <c r="G64" t="s">
@@ -3330,7 +3340,7 @@
       <c r="E65" t="s">
         <v>23</v>
       </c>
-      <c r="F65" s="4">
+      <c r="F65" s="5">
         <v>4800.5200000000004</v>
       </c>
       <c r="G65" t="s">
@@ -3362,7 +3372,7 @@
       <c r="E66" t="s">
         <v>23</v>
       </c>
-      <c r="F66" s="4">
+      <c r="F66" s="5">
         <v>4633.6499999999996</v>
       </c>
       <c r="G66" t="s">
@@ -3394,7 +3404,7 @@
       <c r="E67" t="s">
         <v>23</v>
       </c>
-      <c r="F67" s="4">
+      <c r="F67" s="5">
         <v>4671.72</v>
       </c>
       <c r="G67" t="s">
@@ -3426,7 +3436,7 @@
       <c r="E68" t="s">
         <v>23</v>
       </c>
-      <c r="F68" s="4">
+      <c r="F68" s="5">
         <v>3092.8</v>
       </c>
       <c r="G68" t="s">
@@ -3458,7 +3468,7 @@
       <c r="E69" t="s">
         <v>23</v>
       </c>
-      <c r="F69" s="4">
+      <c r="F69" s="5">
         <v>4382.2</v>
       </c>
       <c r="G69" t="s">
@@ -3490,7 +3500,7 @@
       <c r="E70" t="s">
         <v>23</v>
       </c>
-      <c r="F70" s="4">
+      <c r="F70" s="5">
         <v>4530.34</v>
       </c>
       <c r="G70" t="s">
@@ -3522,7 +3532,7 @@
       <c r="E71" t="s">
         <v>23</v>
       </c>
-      <c r="F71" s="4">
+      <c r="F71" s="5">
         <v>4606.3500000000004</v>
       </c>
       <c r="G71" t="s">
@@ -3554,7 +3564,7 @@
       <c r="E72" t="s">
         <v>23</v>
       </c>
-      <c r="F72" s="4">
+      <c r="F72" s="5">
         <v>4732.0499999999993</v>
       </c>
       <c r="G72" t="s">
@@ -3586,7 +3596,7 @@
       <c r="E73" t="s">
         <v>23</v>
       </c>
-      <c r="F73" s="4">
+      <c r="F73" s="5">
         <v>4797.17</v>
       </c>
       <c r="G73" t="s">
@@ -3618,7 +3628,7 @@
       <c r="E74" t="s">
         <v>23</v>
       </c>
-      <c r="F74" s="4">
+      <c r="F74" s="5">
         <v>4868.3999999999996</v>
       </c>
       <c r="G74" t="s">
@@ -3650,7 +3660,7 @@
       <c r="E75" t="s">
         <v>23</v>
       </c>
-      <c r="F75" s="4">
+      <c r="F75" s="5">
         <v>4886.24</v>
       </c>
       <c r="G75" t="s">
@@ -3682,7 +3692,7 @@
       <c r="E76" t="s">
         <v>23</v>
       </c>
-      <c r="F76" s="4">
+      <c r="F76" s="5">
         <v>4916.079999999999</v>
       </c>
       <c r="G76" t="s">
@@ -3714,7 +3724,7 @@
       <c r="E77" t="s">
         <v>23</v>
       </c>
-      <c r="F77" s="4">
+      <c r="F77" s="5">
         <v>4940.58</v>
       </c>
       <c r="G77" t="s">
@@ -3746,7 +3756,7 @@
       <c r="E78" t="s">
         <v>23</v>
       </c>
-      <c r="F78" s="4">
+      <c r="F78" s="5">
         <v>5073.46</v>
       </c>
       <c r="G78" t="s">
@@ -3778,7 +3788,7 @@
       <c r="E79" t="s">
         <v>23</v>
       </c>
-      <c r="F79" s="4">
+      <c r="F79" s="5">
         <v>5113.84</v>
       </c>
       <c r="G79" t="s">
@@ -3810,7 +3820,7 @@
       <c r="E80" t="s">
         <v>23</v>
       </c>
-      <c r="F80" s="4">
+      <c r="F80" s="5">
         <v>5855.0999999999995</v>
       </c>
       <c r="G80" t="s">
@@ -3842,7 +3852,7 @@
       <c r="E81" t="s">
         <v>23</v>
       </c>
-      <c r="F81" s="4">
+      <c r="F81" s="5">
         <v>1559.02</v>
       </c>
       <c r="G81" t="s">
@@ -3874,7 +3884,7 @@
       <c r="E82" t="s">
         <v>23</v>
       </c>
-      <c r="F82" s="4">
+      <c r="F82" s="5">
         <v>4672.01</v>
       </c>
       <c r="G82" t="s">
@@ -3906,7 +3916,7 @@
       <c r="E83" t="s">
         <v>29</v>
       </c>
-      <c r="F83" s="4">
+      <c r="F83" s="5">
         <v>10435.790000000001</v>
       </c>
       <c r="G83" t="s">
@@ -3938,7 +3948,7 @@
       <c r="E84" t="s">
         <v>32</v>
       </c>
-      <c r="F84" s="4">
+      <c r="F84" s="5">
         <v>413.2</v>
       </c>
       <c r="G84" t="s">
@@ -3970,7 +3980,7 @@
       <c r="E85" t="s">
         <v>32</v>
       </c>
-      <c r="F85" s="4">
+      <c r="F85" s="5">
         <v>8295.82</v>
       </c>
       <c r="G85" t="s">
@@ -4002,7 +4012,7 @@
       <c r="E86" t="s">
         <v>32</v>
       </c>
-      <c r="F86" s="4">
+      <c r="F86" s="5">
         <v>5135.0699999999988</v>
       </c>
       <c r="G86" t="s">
@@ -4034,7 +4044,7 @@
       <c r="E87" t="s">
         <v>32</v>
       </c>
-      <c r="F87" s="4">
+      <c r="F87" s="5">
         <v>6766.880000000001</v>
       </c>
       <c r="G87" t="s">
@@ -4066,7 +4076,7 @@
       <c r="E88" t="s">
         <v>32</v>
       </c>
-      <c r="F88" s="4">
+      <c r="F88" s="5">
         <v>6698.68</v>
       </c>
       <c r="G88" t="s">
@@ -4098,7 +4108,7 @@
       <c r="E89" t="s">
         <v>32</v>
       </c>
-      <c r="F89" s="4">
+      <c r="F89" s="5">
         <v>5685.4400000000014</v>
       </c>
       <c r="G89" t="s">
@@ -4130,7 +4140,7 @@
       <c r="E90" t="s">
         <v>32</v>
       </c>
-      <c r="F90" s="4">
+      <c r="F90" s="5">
         <v>5667.54</v>
       </c>
       <c r="G90" t="s">
@@ -4162,7 +4172,7 @@
       <c r="E91" t="s">
         <v>32</v>
       </c>
-      <c r="F91" s="4">
+      <c r="F91" s="5">
         <v>6782.68</v>
       </c>
       <c r="G91" t="s">
@@ -4194,7 +4204,7 @@
       <c r="E92" t="s">
         <v>32</v>
       </c>
-      <c r="F92" s="4">
+      <c r="F92" s="5">
         <v>4600.47</v>
       </c>
       <c r="G92" t="s">
@@ -4226,7 +4236,7 @@
       <c r="E93" t="s">
         <v>32</v>
       </c>
-      <c r="F93" s="4">
+      <c r="F93" s="5">
         <v>6866.68</v>
       </c>
       <c r="G93" t="s">
@@ -4258,7 +4268,7 @@
       <c r="E94" t="s">
         <v>32</v>
       </c>
-      <c r="F94" s="4">
+      <c r="F94" s="5">
         <v>6782.68</v>
       </c>
       <c r="G94" t="s">
@@ -4290,7 +4300,7 @@
       <c r="E95" t="s">
         <v>32</v>
       </c>
-      <c r="F95" s="4">
+      <c r="F95" s="5">
         <v>6614.68</v>
       </c>
       <c r="G95" t="s">
@@ -4322,7 +4332,7 @@
       <c r="E96" t="s">
         <v>32</v>
       </c>
-      <c r="F96" s="4">
+      <c r="F96" s="5">
         <v>6293.68</v>
       </c>
       <c r="G96" t="s">
@@ -4354,7 +4364,7 @@
       <c r="E97" t="s">
         <v>32</v>
       </c>
-      <c r="F97" s="4">
+      <c r="F97" s="5">
         <v>6698.68</v>
       </c>
       <c r="G97" t="s">
@@ -4386,7 +4396,7 @@
       <c r="E98" t="s">
         <v>33</v>
       </c>
-      <c r="F98" s="4">
+      <c r="F98" s="5">
         <v>6848.25</v>
       </c>
       <c r="G98" t="s">
@@ -78834,6 +78844,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6bca3fa6-a5eb-4b65-82b5-ad238e0f7d3a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3ea247c6-282e-4f08-8659-08412da1af4b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -78842,7 +78863,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E97E6FB9F459C747B111843371630386" ma:contentTypeVersion="16" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="8bc704556fbb02fc13dc9dd470f928a7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6bca3fa6-a5eb-4b65-82b5-ad238e0f7d3a" xmlns:ns3="3ea247c6-282e-4f08-8659-08412da1af4b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ccccf29e18373fe20cc6cffe8165c553" ns2:_="" ns3:_="">
     <xsd:import namespace="6bca3fa6-a5eb-4b65-82b5-ad238e0f7d3a"/>
@@ -79085,18 +79106,18 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6bca3fa6-a5eb-4b65-82b5-ad238e0f7d3a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3ea247c6-282e-4f08-8659-08412da1af4b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9A89705-0F73-4A13-A7AE-B037D23B35D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6bca3fa6-a5eb-4b65-82b5-ad238e0f7d3a"/>
+    <ds:schemaRef ds:uri="3ea247c6-282e-4f08-8659-08412da1af4b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA080EFF-1482-4E2D-88A3-1B9525992C6D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -79104,7 +79125,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63F84EB9-F99B-46E6-AB6C-CE0B489DD459}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -79121,15 +79142,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9A89705-0F73-4A13-A7AE-B037D23B35D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6bca3fa6-a5eb-4b65-82b5-ad238e0f7d3a"/>
-    <ds:schemaRef ds:uri="3ea247c6-282e-4f08-8659-08412da1af4b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/upload/despesa-pessoal-acordo-judicial-brumadinho.xlsx
+++ b/upload/despesa-pessoal-acordo-judicial-brumadinho.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m13368964\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m13368964\Downloads\despesa\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="-105" windowWidth="20610" windowHeight="11010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="Comitê" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="pq">#REF!</definedName>
     <definedName name="tentativa">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12269" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12269" uniqueCount="286">
   <si>
     <t>Ano_Mês</t>
   </si>
@@ -899,6 +899,9 @@
   <si>
     <t>Yuri Schonardie Rapkiewicz</t>
   </si>
+  <si>
+    <t>cge</t>
+  </si>
 </sst>
 </file>
 
@@ -1288,8 +1291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2441"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1351,7 +1354,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>285</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -1435,6 +1438,7 @@
       <c r="J4" s="2">
         <v>44731</v>
       </c>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
@@ -1453,7 +1457,7 @@
         <v>12</v>
       </c>
       <c r="F5" s="5">
-        <v>5411.880000000001</v>
+        <v>5411.88</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
@@ -78844,6 +78848,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="6bca3fa6-a5eb-4b65-82b5-ad238e0f7d3a">
@@ -78852,15 +78865,6 @@
     <TaxCatchAll xmlns="3ea247c6-282e-4f08-8659-08412da1af4b" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -79107,20 +79111,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA080EFF-1482-4E2D-88A3-1B9525992C6D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9A89705-0F73-4A13-A7AE-B037D23B35D4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="6bca3fa6-a5eb-4b65-82b5-ad238e0f7d3a"/>
     <ds:schemaRef ds:uri="3ea247c6-282e-4f08-8659-08412da1af4b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA080EFF-1482-4E2D-88A3-1B9525992C6D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/upload/despesa-pessoal-acordo-judicial-brumadinho.xlsx
+++ b/upload/despesa-pessoal-acordo-judicial-brumadinho.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28412"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13F6FE39-17FD-4E93-B5E8-9162807BB802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C40AC88-2541-45CB-8F76-89400E6DF188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,34 +33,34 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12269" uniqueCount="285">
   <si>
-    <t>Ano_Mês</t>
+    <t>ano_mes</t>
   </si>
   <si>
-    <t>MASP</t>
+    <t>masp</t>
   </si>
   <si>
-    <t>Orgão_sigla</t>
+    <t>orgao_sigla</t>
   </si>
   <si>
-    <t>Órgão</t>
+    <t>orgao</t>
   </si>
   <si>
-    <t>Nome</t>
+    <t>nome</t>
   </si>
   <si>
-    <t>Valor</t>
+    <t>valor</t>
   </si>
   <si>
-    <t>Cargo_sigla</t>
+    <t>cargo_sigla</t>
   </si>
   <si>
-    <t>Cargo_descrição</t>
+    <t>cargo_descricao</t>
   </si>
   <si>
-    <t>Data_início_contrato</t>
+    <t>data_inicio_contrato</t>
   </si>
   <si>
-    <t>Data_término_contrato</t>
+    <t>data_termino_contrato</t>
   </si>
   <si>
     <t>Secretaria de Estado de Saúde</t>
@@ -1260,8 +1260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J2441"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="A2435" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F2441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1294,10 +1294,10 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
     </row>

--- a/upload/despesa-pessoal-acordo-judicial-brumadinho.xlsx
+++ b/upload/despesa-pessoal-acordo-judicial-brumadinho.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m11483500\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m13368964\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11430"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -422,7 +422,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,9 +791,6 @@
       <c r="I11" s="2">
         <v>44144</v>
       </c>
-      <c r="J11" s="2">
-        <v>44736</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
